--- a/Proba1.xlsx
+++ b/Proba1.xlsx
@@ -52,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E1" sqref="E1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,122 +370,191 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" s="1">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>42739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>42741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>42742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>42743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>42744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>42745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>42746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>42748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>42749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>42750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>42752</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>23</v>
+      </c>
+      <c r="E23" s="1">
+        <v>42758</v>
       </c>
     </row>
   </sheetData>
